--- a/ClientExcel/Game/UIItem.xlsx
+++ b/ClientExcel/Game/UIItem.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>#</t>
   </si>
@@ -38,18 +38,12 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>AssetName</t>
   </si>
   <si>
     <t>AssetId</t>
   </si>
   <si>
-    <t>ItemGroupId</t>
-  </si>
-  <si>
-    <t>AssetName</t>
-  </si>
-  <si>
     <t>ItemGroupName</t>
   </si>
   <si>
@@ -65,19 +59,13 @@
     <t>策划备注</t>
   </si>
   <si>
-    <t>物体名字</t>
+    <t>资源名称</t>
   </si>
   <si>
     <t>资源编号</t>
   </si>
   <si>
-    <t>物体组编号</t>
-  </si>
-  <si>
-    <t>资源名称</t>
-  </si>
-  <si>
-    <t>资源组名称</t>
+    <t>物品组名称</t>
   </si>
 </sst>
 </file>
@@ -1022,17 +1010,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="9" width="26" style="1" customWidth="1"/>
-    <col min="10" max="10" width="58.875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="26" style="1" customWidth="1"/>
+    <col min="1" max="7" width="26" style="1" customWidth="1"/>
+    <col min="8" max="8" width="58.875" style="1" customWidth="1"/>
+    <col min="9" max="16382" width="26" style="1" customWidth="1"/>
+    <col min="16383" max="16384" width="26" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1043,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,60 +1048,42 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ClientExcel/Game/UIItem.xlsx
+++ b/ClientExcel/Game/UIItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UIItem" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>AssetId</t>
   </si>
   <si>
-    <t>ItemGroupName</t>
+    <t>ItemGroupId</t>
   </si>
   <si>
     <t>Int32</t>
@@ -65,7 +65,7 @@
     <t>资源编号</t>
   </si>
   <si>
-    <t>物品组名称</t>
+    <t>物品组编号</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1063,7 +1063,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
